--- a/src/Sensoruebersicht_template.xlsx
+++ b/src/Sensoruebersicht_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\workspace\eb-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\workspace\eb-scripts\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF9BD9F-EEBA-4068-A00F-E93E9BB12F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894E98F3-90B0-4DD6-9B88-9C54C30881FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="3915" windowWidth="28800" windowHeight="15480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leichtbeton (LB)" sheetId="1" r:id="rId1"/>
@@ -2773,7 +2773,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3058,36 +3058,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="51" customWidth="1"/>
     <col min="2" max="2" width="10" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6328125" style="50" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.36328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="50" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.1796875" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.54296875" style="50" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" style="50" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" style="50" customWidth="1"/>
-    <col min="19" max="16384" width="11.453125" style="50"/>
+    <col min="11" max="11" width="9.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="50" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="50" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="M1" s="60"/>
       <c r="N1" s="60"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="44"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -3121,7 +3121,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3136,7 +3136,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="N5" s="36"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>22</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>35</v>
       </c>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3396,7 +3396,7 @@
       </c>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="N14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -3552,7 +3552,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="N18" s="36"/>
     </row>
-    <row r="19" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="5"/>
       <c r="I19" s="39" t="s">
         <v>113</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="N19" s="37"/>
     </row>
-    <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>117</v>
       </c>
@@ -3641,14 +3641,14 @@
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I24" s="55"/>
       <c r="J24" s="40"/>
       <c r="O24" s="50"/>
       <c r="P24" s="50"/>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
         <v>118</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
         <v>128</v>
       </c>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="J27"/>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="J29" s="53"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="64" t="s">
         <v>145</v>
       </c>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="64"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="J31" s="54"/>
     </row>
-    <row r="32" spans="1:16" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="64" t="s">
         <v>153</v>
       </c>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="64"/>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="64" t="s">
         <v>161</v>
       </c>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="64"/>
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
@@ -4058,14 +4058,14 @@
       </c>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="58" t="s">
         <v>138</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>183</v>
       </c>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="64"/>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
@@ -4138,14 +4138,14 @@
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="58" t="s">
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="58"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="58" t="s">
         <v>130</v>
       </c>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="64" t="s">
         <v>193</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
@@ -4218,14 +4218,14 @@
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="58" t="s">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="C47" s="58"/>
+      <c r="C47" s="64"/>
       <c r="D47" s="58" t="s">
         <v>141</v>
       </c>
@@ -4246,14 +4246,14 @@
       </c>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="58" t="s">
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="C48" s="58"/>
+      <c r="C48" s="64"/>
       <c r="D48" s="58" t="s">
         <v>130</v>
       </c>
@@ -4274,14 +4274,14 @@
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="58" t="s">
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="58"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="58" t="s">
         <v>130</v>
       </c>
@@ -4302,14 +4302,14 @@
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="58" t="s">
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="C50" s="58"/>
+      <c r="C50" s="64"/>
       <c r="D50" s="58" t="s">
         <v>130</v>
       </c>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
         <v>215</v>
       </c>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -4382,7 +4382,7 @@
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="B53" s="64"/>
       <c r="C53" s="64"/>
@@ -4406,7 +4406,7 @@
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="B54" s="64"/>
       <c r="C54" s="64"/>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="64" t="s">
         <v>225</v>
       </c>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="64"/>
       <c r="B56" s="64"/>
       <c r="C56" s="64"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="64"/>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
@@ -4530,14 +4530,14 @@
       </c>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="58" t="s">
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="C59" s="58"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="58" t="s">
         <v>138</v>
       </c>
@@ -4558,14 +4558,14 @@
       </c>
       <c r="J59"/>
     </row>
-    <row r="60" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="58" t="s">
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="58"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="58" t="s">
         <v>130</v>
       </c>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="J60"/>
     </row>
-    <row r="61" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="64" t="s">
         <v>245</v>
       </c>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="J61"/>
     </row>
-    <row r="62" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="64"/>
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="J62"/>
     </row>
-    <row r="63" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="64"/>
       <c r="B63" s="64"/>
       <c r="C63" s="64"/>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="J63"/>
     </row>
-    <row r="64" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="64"/>
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="64" t="s">
         <v>256</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="64"/>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
@@ -4742,7 +4742,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="64"/>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
@@ -4768,7 +4768,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="64"/>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
@@ -4794,7 +4794,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="64" t="s">
         <v>270</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="64"/>
       <c r="B70" s="64"/>
       <c r="C70" s="64"/>
@@ -4850,7 +4850,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="64"/>
       <c r="B71" s="64"/>
       <c r="C71" s="64"/>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="64"/>
       <c r="B72" s="64"/>
       <c r="C72" s="64"/>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="64" t="s">
         <v>282</v>
       </c>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="64"/>
       <c r="B74" s="64"/>
       <c r="C74" s="64"/>
@@ -4950,7 +4950,7 @@
       </c>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
         <v>288</v>
       </c>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="64"/>
       <c r="B76" s="64"/>
       <c r="C76" s="64"/>
@@ -5002,7 +5002,7 @@
       </c>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="64"/>
       <c r="B77" s="64"/>
       <c r="C77" s="64"/>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="s">
         <v>296</v>
       </c>
@@ -5054,7 +5054,7 @@
       </c>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="64"/>
       <c r="B79" s="64"/>
       <c r="C79" s="64"/>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="64"/>
       <c r="B80" s="64"/>
       <c r="C80" s="64"/>
@@ -5102,7 +5102,7 @@
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="s">
         <v>304</v>
       </c>
@@ -5130,7 +5130,7 @@
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="64"/>
       <c r="B82" s="64"/>
       <c r="C82" s="64"/>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="64"/>
       <c r="B83" s="64"/>
       <c r="C83" s="64"/>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="64"/>
       <c r="B84" s="64"/>
       <c r="C84" s="64"/>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="64" t="s">
         <v>314</v>
       </c>
@@ -5230,7 +5230,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="64"/>
       <c r="B86" s="64"/>
       <c r="C86" s="64"/>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
         <v>320</v>
       </c>
@@ -5282,7 +5282,7 @@
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="64"/>
       <c r="B88" s="64"/>
       <c r="C88" s="64"/>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="64"/>
       <c r="B89" s="64"/>
       <c r="C89" s="64"/>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="s">
         <v>328</v>
       </c>
@@ -5358,7 +5358,7 @@
       </c>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="64"/>
       <c r="B91" s="64"/>
       <c r="C91" s="64"/>
@@ -5382,14 +5382,14 @@
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="58" t="s">
+    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="64" t="s">
         <v>334</v>
       </c>
-      <c r="B92" s="58" t="s">
+      <c r="B92" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="C92" s="58"/>
+      <c r="C92" s="64"/>
       <c r="D92" s="58" t="s">
         <v>130</v>
       </c>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="64" t="s">
         <v>338</v>
       </c>
@@ -5438,7 +5438,7 @@
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="64"/>
       <c r="B94" s="64"/>
       <c r="C94" s="64"/>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="64"/>
       <c r="B95" s="64"/>
       <c r="C95" s="64"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="64"/>
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
@@ -5510,7 +5510,7 @@
       </c>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="64" t="s">
         <v>348</v>
       </c>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="64"/>
       <c r="B98" s="64"/>
       <c r="C98" s="64"/>
@@ -5562,14 +5562,14 @@
       </c>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="58" t="s">
+    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="C99" s="58"/>
+      <c r="C99" s="64"/>
       <c r="D99" s="58" t="s">
         <v>130</v>
       </c>
@@ -5590,14 +5590,14 @@
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="58" t="s">
+    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="B100" s="58" t="s">
+      <c r="B100" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="C100" s="58"/>
+      <c r="C100" s="64"/>
       <c r="D100" s="58" t="s">
         <v>130</v>
       </c>
@@ -5618,14 +5618,14 @@
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="58" t="s">
+    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="C101" s="58"/>
+      <c r="C101" s="64"/>
       <c r="D101" s="58" t="s">
         <v>135</v>
       </c>
@@ -5646,14 +5646,14 @@
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="58" t="s">
+    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="B102" s="58" t="s">
+      <c r="B102" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="C102" s="58"/>
+      <c r="C102" s="64"/>
       <c r="D102" s="58" t="s">
         <v>130</v>
       </c>
@@ -5674,14 +5674,14 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="58" t="s">
+    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="C103" s="58"/>
+      <c r="C103" s="64"/>
       <c r="D103" s="58" t="s">
         <v>130</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="64" t="s">
         <v>374</v>
       </c>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="64"/>
       <c r="B105" s="64"/>
       <c r="C105" s="64"/>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="64"/>
       <c r="B106" s="64"/>
       <c r="C106" s="64"/>
@@ -5778,14 +5778,14 @@
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="58" t="s">
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="64" t="s">
         <v>382</v>
       </c>
-      <c r="B107" s="58" t="s">
+      <c r="B107" s="64" t="s">
         <v>383</v>
       </c>
-      <c r="C107" s="58"/>
+      <c r="C107" s="64"/>
       <c r="D107" s="58" t="s">
         <v>130</v>
       </c>
@@ -5806,74 +5806,15 @@
       </c>
       <c r="J107"/>
     </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A51:A54"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait"/>
@@ -5885,36 +5826,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A26" sqref="A26:C158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="51" customWidth="1"/>
     <col min="2" max="2" width="10" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.08984375" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="50" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.1796875" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.54296875" style="50" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" style="50" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" style="50" customWidth="1"/>
-    <col min="19" max="16384" width="11.453125" style="50"/>
+    <col min="11" max="11" width="9.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="50" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="50" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -5932,7 +5873,7 @@
       <c r="M1" s="60"/>
       <c r="N1" s="60"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="44"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5948,7 +5889,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5963,7 +5904,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
@@ -5995,7 +5936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
@@ -6037,7 +5978,7 @@
       </c>
       <c r="N5" s="36"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>22</v>
       </c>
@@ -6079,7 +6020,7 @@
       </c>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>35</v>
       </c>
@@ -6121,7 +6062,7 @@
       </c>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
@@ -6159,7 +6100,7 @@
       </c>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6193,7 +6134,7 @@
       </c>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -6223,7 +6164,7 @@
       </c>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -6249,7 +6190,7 @@
       </c>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -6273,7 +6214,7 @@
       </c>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -6299,7 +6240,7 @@
       </c>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -6325,7 +6266,7 @@
       </c>
       <c r="N14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -6351,7 +6292,7 @@
       </c>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -6379,7 +6320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -6405,7 +6346,7 @@
       </c>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6431,7 +6372,7 @@
       </c>
       <c r="N18" s="36"/>
     </row>
-    <row r="19" spans="1:16" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="5"/>
       <c r="I19" s="39" t="s">
         <v>113</v>
@@ -6450,7 +6391,7 @@
       </c>
       <c r="N19" s="37"/>
     </row>
-    <row r="22" spans="1:16" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>386</v>
       </c>
@@ -6468,14 +6409,14 @@
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
     </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I24" s="55"/>
       <c r="J24" s="40"/>
       <c r="O24" s="50"/>
       <c r="P24" s="50"/>
     </row>
-    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
         <v>118</v>
       </c>
@@ -6509,7 +6450,7 @@
       <c r="O25" s="50"/>
       <c r="P25" s="50"/>
     </row>
-    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
         <v>128</v>
       </c>
@@ -6539,7 +6480,7 @@
       </c>
       <c r="J26" s="40"/>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -6563,7 +6504,7 @@
       </c>
       <c r="J27" s="40"/>
     </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -6587,7 +6528,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -6611,14 +6552,14 @@
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="58" t="s">
+    <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="C30" s="58"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="58" t="s">
         <v>130</v>
       </c>
@@ -6639,7 +6580,7 @@
       </c>
       <c r="J30" s="53"/>
     </row>
-    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
         <v>153</v>
       </c>
@@ -6667,7 +6608,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
@@ -6691,7 +6632,7 @@
       </c>
       <c r="J32" s="54"/>
     </row>
-    <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
@@ -6715,7 +6656,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="64" t="s">
         <v>161</v>
       </c>
@@ -6743,7 +6684,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
@@ -6767,7 +6708,7 @@
       </c>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
@@ -6791,7 +6732,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -6815,7 +6756,7 @@
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -6839,7 +6780,7 @@
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
         <v>183</v>
       </c>
@@ -6867,7 +6808,7 @@
       </c>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
@@ -6891,14 +6832,14 @@
       </c>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="64" t="s">
         <v>419</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="58" t="s">
         <v>130</v>
       </c>
@@ -6919,7 +6860,7 @@
       </c>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="64" t="s">
         <v>193</v>
       </c>
@@ -6947,7 +6888,7 @@
       </c>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="64"/>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
@@ -6971,7 +6912,7 @@
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
@@ -6995,14 +6936,14 @@
       </c>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="58" t="s">
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="64" t="s">
         <v>430</v>
       </c>
-      <c r="C45" s="58"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="58" t="s">
         <v>130</v>
       </c>
@@ -7023,7 +6964,7 @@
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
         <v>207</v>
       </c>
@@ -7051,7 +6992,7 @@
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="64"/>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
@@ -7075,7 +7016,7 @@
       </c>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
         <v>215</v>
       </c>
@@ -7103,7 +7044,7 @@
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
@@ -7127,7 +7068,7 @@
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64"/>
@@ -7151,14 +7092,14 @@
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="58" t="s">
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="64" t="s">
         <v>445</v>
       </c>
-      <c r="C51" s="58"/>
+      <c r="C51" s="64"/>
       <c r="D51" s="58" t="s">
         <v>130</v>
       </c>
@@ -7179,14 +7120,14 @@
       </c>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="58" t="s">
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="64" t="s">
         <v>448</v>
       </c>
-      <c r="C52" s="58"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="58" t="s">
         <v>130</v>
       </c>
@@ -7207,14 +7148,14 @@
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="58" t="s">
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="C53" s="58"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="58" t="s">
         <v>130</v>
       </c>
@@ -7235,7 +7176,7 @@
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
         <v>245</v>
       </c>
@@ -7263,7 +7204,7 @@
       </c>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
@@ -7287,7 +7228,7 @@
       </c>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="64"/>
       <c r="B56" s="64"/>
       <c r="C56" s="64"/>
@@ -7311,7 +7252,7 @@
       </c>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -7335,7 +7276,7 @@
       </c>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="64" t="s">
         <v>256</v>
       </c>
@@ -7365,7 +7306,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="64"/>
       <c r="B59" s="64"/>
       <c r="C59" s="64"/>
@@ -7391,7 +7332,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="64"/>
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
@@ -7417,7 +7358,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="64"/>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
@@ -7443,7 +7384,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="64" t="s">
         <v>270</v>
       </c>
@@ -7473,7 +7414,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="64"/>
       <c r="B63" s="64"/>
       <c r="C63" s="64"/>
@@ -7499,7 +7440,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="64"/>
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
@@ -7523,7 +7464,7 @@
       </c>
       <c r="J64"/>
     </row>
-    <row r="65" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="64"/>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
@@ -7547,7 +7488,7 @@
       </c>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="64" t="s">
         <v>288</v>
       </c>
@@ -7575,7 +7516,7 @@
       </c>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="64"/>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
@@ -7599,7 +7540,7 @@
       </c>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="64"/>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
@@ -7623,7 +7564,7 @@
       </c>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="64"/>
       <c r="B69" s="64"/>
       <c r="C69" s="64"/>
@@ -7647,7 +7588,7 @@
       </c>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="64" t="s">
         <v>304</v>
       </c>
@@ -7675,7 +7616,7 @@
       </c>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="64"/>
       <c r="B71" s="64"/>
       <c r="C71" s="64"/>
@@ -7699,7 +7640,7 @@
       </c>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="64"/>
       <c r="B72" s="64"/>
       <c r="C72" s="64"/>
@@ -7723,7 +7664,7 @@
       </c>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="64"/>
       <c r="B73" s="64"/>
       <c r="C73" s="64"/>
@@ -7747,14 +7688,14 @@
       </c>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="58" t="s">
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="B74" s="58" t="s">
+      <c r="B74" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="C74" s="58"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="58" t="s">
         <v>130</v>
       </c>
@@ -7775,7 +7716,7 @@
       </c>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="64" t="s">
         <v>320</v>
       </c>
@@ -7803,7 +7744,7 @@
       </c>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="64"/>
       <c r="B76" s="64"/>
       <c r="C76" s="64"/>
@@ -7827,7 +7768,7 @@
       </c>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="64"/>
       <c r="B77" s="64"/>
       <c r="C77" s="64"/>
@@ -7851,7 +7792,7 @@
       </c>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="64" t="s">
         <v>328</v>
       </c>
@@ -7879,7 +7820,7 @@
       </c>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="64"/>
       <c r="B79" s="64"/>
       <c r="C79" s="64"/>
@@ -7903,7 +7844,7 @@
       </c>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="64" t="s">
         <v>338</v>
       </c>
@@ -7931,7 +7872,7 @@
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="64"/>
       <c r="B81" s="64"/>
       <c r="C81" s="64"/>
@@ -7955,7 +7896,7 @@
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="64"/>
       <c r="B82" s="64"/>
       <c r="C82" s="64"/>
@@ -7979,14 +7920,14 @@
       </c>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="58" t="s">
+    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="B83" s="58" t="s">
+      <c r="B83" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="C83" s="58"/>
+      <c r="C83" s="64"/>
       <c r="D83" s="58" t="s">
         <v>130</v>
       </c>
@@ -8007,7 +7948,7 @@
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
         <v>348</v>
       </c>
@@ -8035,7 +7976,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="64"/>
       <c r="B85" s="64"/>
       <c r="C85" s="64"/>
@@ -8059,14 +8000,14 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="58" t="s">
+    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="B86" s="58" t="s">
+      <c r="B86" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="C86" s="58"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="58" t="s">
         <v>130</v>
       </c>
@@ -8087,14 +8028,14 @@
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="58" t="s">
+    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="C87" s="58"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="58" t="s">
         <v>130</v>
       </c>
@@ -8115,7 +8056,7 @@
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="64" t="s">
         <v>366</v>
       </c>
@@ -8143,7 +8084,7 @@
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="64"/>
       <c r="B89" s="64"/>
       <c r="C89" s="64"/>
@@ -8167,7 +8108,7 @@
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="64" t="s">
         <v>374</v>
       </c>
@@ -8195,7 +8136,7 @@
       </c>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="64"/>
       <c r="B91" s="64"/>
       <c r="C91" s="64"/>
@@ -8219,7 +8160,7 @@
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="64"/>
       <c r="B92" s="64"/>
       <c r="C92" s="64"/>
@@ -8243,14 +8184,14 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="58" t="s">
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="C93" s="58"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="58" t="s">
         <v>130</v>
       </c>
@@ -8271,65 +8212,271 @@
       </c>
       <c r="J93"/>
     </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="51"/>
+      <c r="C103" s="51"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="51"/>
+      <c r="C107" s="51"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108" s="51"/>
+      <c r="C108" s="51"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="51"/>
+      <c r="C109" s="51"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="51"/>
+      <c r="C114" s="51"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="51"/>
+      <c r="C117" s="51"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" s="51"/>
+      <c r="C118" s="51"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="51"/>
+      <c r="C119" s="51"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" s="51"/>
+      <c r="C120" s="51"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" s="51"/>
+      <c r="C121" s="51"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" s="51"/>
+      <c r="C122" s="51"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" s="51"/>
+      <c r="C123" s="51"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" s="51"/>
+      <c r="C124" s="51"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="51"/>
+      <c r="C125" s="51"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126" s="51"/>
+      <c r="C126" s="51"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="51"/>
+      <c r="C127" s="51"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="51"/>
+      <c r="C128" s="51"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="51"/>
+      <c r="C129" s="51"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="51"/>
+      <c r="C130" s="51"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="51"/>
+      <c r="C131" s="51"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" s="51"/>
+      <c r="C133" s="51"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="51"/>
+      <c r="C137" s="51"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="51"/>
+      <c r="C138" s="51"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" s="51"/>
+      <c r="C139" s="51"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="51"/>
+      <c r="C141" s="51"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="51"/>
+      <c r="C142" s="51"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="51"/>
+      <c r="C143" s="51"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="51"/>
+      <c r="C144" s="51"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="51"/>
+      <c r="C145" s="51"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="51"/>
+      <c r="C149" s="51"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" s="51"/>
+      <c r="C151" s="51"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="51"/>
+      <c r="C154" s="51"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="51"/>
+      <c r="C155" s="51"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="51"/>
+      <c r="C156" s="51"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="51"/>
+      <c r="C157" s="51"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="51"/>
+      <c r="C158" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A50"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A31:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait"/>
@@ -8341,36 +8488,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:P252"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="51" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.36328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6328125" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="50" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.1796875" style="50" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.54296875" style="50" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.54296875" style="50" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" style="50" customWidth="1"/>
-    <col min="19" max="16384" width="11.453125" style="50"/>
+    <col min="11" max="11" width="9.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="50" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" style="50" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
@@ -8388,7 +8535,7 @@
       <c r="M1" s="60"/>
       <c r="N1" s="60"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="44"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -8404,7 +8551,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8419,7 +8566,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>1</v>
       </c>
@@ -8451,7 +8598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
@@ -8493,7 +8640,7 @@
       </c>
       <c r="N5" s="36"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>22</v>
       </c>
@@ -8535,7 +8682,7 @@
       </c>
       <c r="N6" s="36"/>
     </row>
-    <row r="7" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>35</v>
       </c>
@@ -8577,7 +8724,7 @@
       </c>
       <c r="N7" s="36"/>
     </row>
-    <row r="8" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
@@ -8615,7 +8762,7 @@
       </c>
       <c r="N8" s="36"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8649,7 +8796,7 @@
       </c>
       <c r="N9" s="36"/>
     </row>
-    <row r="10" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8679,7 +8826,7 @@
       </c>
       <c r="N10" s="36"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8705,7 +8852,7 @@
       </c>
       <c r="N11" s="36"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -8729,7 +8876,7 @@
       </c>
       <c r="N12" s="36"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -8755,7 +8902,7 @@
       </c>
       <c r="N13" s="36"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="44"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -8781,7 +8928,7 @@
       </c>
       <c r="N14" s="36"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8807,7 +8954,7 @@
       </c>
       <c r="N15" s="36"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -8835,7 +8982,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="44"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8861,7 +9008,7 @@
       </c>
       <c r="N17" s="36"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8887,7 +9034,7 @@
       </c>
       <c r="N18" s="36"/>
     </row>
-    <row r="19" spans="1:14" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="5"/>
       <c r="I19" s="39" t="s">
         <v>113</v>
@@ -8906,7 +9053,7 @@
       </c>
       <c r="N19" s="37"/>
     </row>
-    <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>554</v>
       </c>
@@ -8924,11 +9071,11 @@
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I24" s="55"/>
     </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58" t="s">
         <v>118</v>
       </c>
@@ -8960,7 +9107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="64" t="s">
         <v>128</v>
       </c>
@@ -8988,7 +9135,7 @@
       </c>
       <c r="J26"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -9012,7 +9159,7 @@
       </c>
       <c r="J27" s="54"/>
     </row>
-    <row r="28" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -9036,7 +9183,7 @@
       </c>
       <c r="J28"/>
     </row>
-    <row r="29" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -9060,7 +9207,7 @@
       </c>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="64"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
@@ -9084,7 +9231,7 @@
       </c>
       <c r="J30"/>
     </row>
-    <row r="31" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="64" t="s">
         <v>153</v>
       </c>
@@ -9112,7 +9259,7 @@
       </c>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="64"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
@@ -9136,7 +9283,7 @@
       </c>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="64"/>
       <c r="B33" s="64"/>
       <c r="C33" s="64"/>
@@ -9160,7 +9307,7 @@
       </c>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="64" t="s">
         <v>161</v>
       </c>
@@ -9188,7 +9335,7 @@
       </c>
       <c r="J34"/>
     </row>
-    <row r="35" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="64"/>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
@@ -9212,7 +9359,7 @@
       </c>
       <c r="J35"/>
     </row>
-    <row r="36" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="64"/>
       <c r="B36" s="64"/>
       <c r="C36" s="64"/>
@@ -9236,7 +9383,7 @@
       </c>
       <c r="J36"/>
     </row>
-    <row r="37" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="64"/>
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
@@ -9260,7 +9407,7 @@
       </c>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="64"/>
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
@@ -9284,7 +9431,7 @@
       </c>
       <c r="J38"/>
     </row>
-    <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="64" t="s">
         <v>183</v>
       </c>
@@ -9312,7 +9459,7 @@
       </c>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="64"/>
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
@@ -9336,7 +9483,7 @@
       </c>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="64"/>
       <c r="B41" s="64"/>
       <c r="C41" s="64"/>
@@ -9360,7 +9507,7 @@
       </c>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="64"/>
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
@@ -9384,7 +9531,7 @@
       </c>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="64" t="s">
         <v>193</v>
       </c>
@@ -9412,7 +9559,7 @@
       </c>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="64"/>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
@@ -9436,7 +9583,7 @@
       </c>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="64"/>
       <c r="B45" s="64"/>
       <c r="C45" s="64"/>
@@ -9460,7 +9607,7 @@
       </c>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="64"/>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
@@ -9484,7 +9631,7 @@
       </c>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="64"/>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
@@ -9508,7 +9655,7 @@
       </c>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
         <v>207</v>
       </c>
@@ -9536,7 +9683,7 @@
       </c>
       <c r="J48"/>
     </row>
-    <row r="49" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
@@ -9560,7 +9707,7 @@
       </c>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="64"/>
       <c r="B50" s="64"/>
       <c r="C50" s="64"/>
@@ -9584,7 +9731,7 @@
       </c>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
         <v>215</v>
       </c>
@@ -9612,7 +9759,7 @@
       </c>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="64"/>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
@@ -9636,7 +9783,7 @@
       </c>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="64"/>
       <c r="B53" s="64"/>
       <c r="C53" s="64"/>
@@ -9660,7 +9807,7 @@
       </c>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="64"/>
       <c r="B54" s="64"/>
       <c r="C54" s="64"/>
@@ -9684,7 +9831,7 @@
       </c>
       <c r="J54"/>
     </row>
-    <row r="55" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
@@ -9708,7 +9855,7 @@
       </c>
       <c r="J55"/>
     </row>
-    <row r="56" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="64" t="s">
         <v>237</v>
       </c>
@@ -9736,7 +9883,7 @@
       </c>
       <c r="J56"/>
     </row>
-    <row r="57" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="64"/>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
@@ -9760,7 +9907,7 @@
       </c>
       <c r="J57"/>
     </row>
-    <row r="58" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="64"/>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
@@ -9784,7 +9931,7 @@
       </c>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="64" t="s">
         <v>245</v>
       </c>
@@ -9814,7 +9961,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="64"/>
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
@@ -9840,7 +9987,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="64"/>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
@@ -9866,7 +10013,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="64"/>
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
@@ -9892,7 +10039,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="64" t="s">
         <v>256</v>
       </c>
@@ -9922,7 +10069,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="64"/>
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
@@ -9948,7 +10095,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="64"/>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
@@ -9972,7 +10119,7 @@
       </c>
       <c r="J65"/>
     </row>
-    <row r="66" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="64"/>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
@@ -9996,7 +10143,7 @@
       </c>
       <c r="J66"/>
     </row>
-    <row r="67" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="64" t="s">
         <v>270</v>
       </c>
@@ -10024,7 +10171,7 @@
       </c>
       <c r="J67"/>
     </row>
-    <row r="68" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="64"/>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
@@ -10048,7 +10195,7 @@
       </c>
       <c r="J68"/>
     </row>
-    <row r="69" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="64"/>
       <c r="B69" s="64"/>
       <c r="C69" s="64"/>
@@ -10072,7 +10219,7 @@
       </c>
       <c r="J69"/>
     </row>
-    <row r="70" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="64"/>
       <c r="B70" s="64"/>
       <c r="C70" s="64"/>
@@ -10096,7 +10243,7 @@
       </c>
       <c r="J70"/>
     </row>
-    <row r="71" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="64" t="s">
         <v>288</v>
       </c>
@@ -10124,7 +10271,7 @@
       </c>
       <c r="J71"/>
     </row>
-    <row r="72" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="64"/>
       <c r="B72" s="64"/>
       <c r="C72" s="64"/>
@@ -10148,7 +10295,7 @@
       </c>
       <c r="J72"/>
     </row>
-    <row r="73" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="64"/>
       <c r="B73" s="64"/>
       <c r="C73" s="64"/>
@@ -10172,7 +10319,7 @@
       </c>
       <c r="J73"/>
     </row>
-    <row r="74" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="64"/>
       <c r="B74" s="64"/>
       <c r="C74" s="64"/>
@@ -10196,7 +10343,7 @@
       </c>
       <c r="J74"/>
     </row>
-    <row r="75" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="64"/>
       <c r="B75" s="64"/>
       <c r="C75" s="64"/>
@@ -10220,7 +10367,7 @@
       </c>
       <c r="J75"/>
     </row>
-    <row r="76" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="64" t="s">
         <v>304</v>
       </c>
@@ -10248,7 +10395,7 @@
       </c>
       <c r="J76"/>
     </row>
-    <row r="77" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="64"/>
       <c r="B77" s="64"/>
       <c r="C77" s="64"/>
@@ -10272,7 +10419,7 @@
       </c>
       <c r="J77"/>
     </row>
-    <row r="78" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="64"/>
       <c r="B78" s="64"/>
       <c r="C78" s="64"/>
@@ -10296,7 +10443,7 @@
       </c>
       <c r="J78"/>
     </row>
-    <row r="79" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="64"/>
       <c r="B79" s="64"/>
       <c r="C79" s="64"/>
@@ -10320,14 +10467,14 @@
       </c>
       <c r="J79"/>
     </row>
-    <row r="80" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="58" t="s">
+    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="58" t="s">
+      <c r="B80" s="64" t="s">
         <v>677</v>
       </c>
-      <c r="C80" s="58"/>
+      <c r="C80" s="64"/>
       <c r="D80" s="58" t="s">
         <v>130</v>
       </c>
@@ -10348,7 +10495,7 @@
       </c>
       <c r="J80"/>
     </row>
-    <row r="81" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="64" t="s">
         <v>320</v>
       </c>
@@ -10376,7 +10523,7 @@
       </c>
       <c r="J81"/>
     </row>
-    <row r="82" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="64"/>
       <c r="B82" s="64"/>
       <c r="C82" s="64"/>
@@ -10400,7 +10547,7 @@
       </c>
       <c r="J82"/>
     </row>
-    <row r="83" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="64"/>
       <c r="B83" s="64"/>
       <c r="C83" s="64"/>
@@ -10424,7 +10571,7 @@
       </c>
       <c r="J83"/>
     </row>
-    <row r="84" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="64" t="s">
         <v>328</v>
       </c>
@@ -10452,7 +10599,7 @@
       </c>
       <c r="J84"/>
     </row>
-    <row r="85" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="64"/>
       <c r="B85" s="64"/>
       <c r="C85" s="64"/>
@@ -10476,7 +10623,7 @@
       </c>
       <c r="J85"/>
     </row>
-    <row r="86" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="64"/>
       <c r="B86" s="64"/>
       <c r="C86" s="64"/>
@@ -10500,7 +10647,7 @@
       </c>
       <c r="J86"/>
     </row>
-    <row r="87" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="64" t="s">
         <v>338</v>
       </c>
@@ -10528,7 +10675,7 @@
       </c>
       <c r="J87"/>
     </row>
-    <row r="88" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="64"/>
       <c r="B88" s="64"/>
       <c r="C88" s="64"/>
@@ -10552,7 +10699,7 @@
       </c>
       <c r="J88"/>
     </row>
-    <row r="89" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="64"/>
       <c r="B89" s="64"/>
       <c r="C89" s="64"/>
@@ -10576,14 +10723,14 @@
       </c>
       <c r="J89"/>
     </row>
-    <row r="90" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="58" t="s">
+    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="64" t="s">
         <v>701</v>
       </c>
-      <c r="C90" s="58"/>
+      <c r="C90" s="64"/>
       <c r="D90" s="58" t="s">
         <v>130</v>
       </c>
@@ -10604,7 +10751,7 @@
       </c>
       <c r="J90"/>
     </row>
-    <row r="91" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="64" t="s">
         <v>348</v>
       </c>
@@ -10632,7 +10779,7 @@
       </c>
       <c r="J91"/>
     </row>
-    <row r="92" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="64"/>
       <c r="B92" s="64"/>
       <c r="C92" s="64"/>
@@ -10656,14 +10803,14 @@
       </c>
       <c r="J92"/>
     </row>
-    <row r="93" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="58" t="s">
+    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="64" t="s">
         <v>358</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="64" t="s">
         <v>709</v>
       </c>
-      <c r="C93" s="58"/>
+      <c r="C93" s="64"/>
       <c r="D93" s="58" t="s">
         <v>130</v>
       </c>
@@ -10684,14 +10831,14 @@
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="58" t="s">
+    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="64" t="s">
         <v>362</v>
       </c>
-      <c r="B94" s="58" t="s">
+      <c r="B94" s="64" t="s">
         <v>712</v>
       </c>
-      <c r="C94" s="58"/>
+      <c r="C94" s="64"/>
       <c r="D94" s="58" t="s">
         <v>130</v>
       </c>
@@ -10712,7 +10859,7 @@
       </c>
       <c r="J94"/>
     </row>
-    <row r="95" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="64" t="s">
         <v>366</v>
       </c>
@@ -10740,7 +10887,7 @@
       </c>
       <c r="J95"/>
     </row>
-    <row r="96" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="64"/>
       <c r="B96" s="64"/>
       <c r="C96" s="64"/>
@@ -10764,7 +10911,7 @@
       </c>
       <c r="J96"/>
     </row>
-    <row r="97" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="64" t="s">
         <v>374</v>
       </c>
@@ -10792,7 +10939,7 @@
       </c>
       <c r="J97"/>
     </row>
-    <row r="98" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="64"/>
       <c r="B98" s="64"/>
       <c r="C98" s="64"/>
@@ -10816,7 +10963,7 @@
       </c>
       <c r="J98"/>
     </row>
-    <row r="99" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="64"/>
       <c r="B99" s="64"/>
       <c r="C99" s="64"/>
@@ -10840,7 +10987,7 @@
       </c>
       <c r="J99"/>
     </row>
-    <row r="100" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="64"/>
       <c r="B100" s="64"/>
       <c r="C100" s="64"/>
@@ -10864,7 +11011,7 @@
       </c>
       <c r="J100"/>
     </row>
-    <row r="101" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="64" t="s">
         <v>550</v>
       </c>
@@ -10892,7 +11039,7 @@
       </c>
       <c r="J101"/>
     </row>
-    <row r="102" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="64"/>
       <c r="B102" s="64"/>
       <c r="C102" s="64"/>
@@ -10916,7 +11063,7 @@
       </c>
       <c r="J102"/>
     </row>
-    <row r="103" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="64"/>
       <c r="B103" s="64"/>
       <c r="C103" s="64"/>
@@ -10940,7 +11087,7 @@
       </c>
       <c r="J103"/>
     </row>
-    <row r="104" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="64" t="s">
         <v>736</v>
       </c>
@@ -10968,7 +11115,7 @@
       </c>
       <c r="J104"/>
     </row>
-    <row r="105" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="64"/>
       <c r="B105" s="64"/>
       <c r="C105" s="64"/>
@@ -10992,7 +11139,7 @@
       </c>
       <c r="J105"/>
     </row>
-    <row r="106" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="64"/>
       <c r="B106" s="64"/>
       <c r="C106" s="64"/>
@@ -11016,7 +11163,7 @@
       </c>
       <c r="J106"/>
     </row>
-    <row r="107" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="64"/>
       <c r="B107" s="64"/>
       <c r="C107" s="64"/>
@@ -11040,7 +11187,7 @@
       </c>
       <c r="J107"/>
     </row>
-    <row r="108" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="64" t="s">
         <v>746</v>
       </c>
@@ -11068,7 +11215,7 @@
       </c>
       <c r="J108"/>
     </row>
-    <row r="109" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="64"/>
       <c r="B109" s="64"/>
       <c r="C109" s="64"/>
@@ -11092,77 +11239,583 @@
       </c>
       <c r="J109"/>
     </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="51"/>
+      <c r="C110" s="51"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B111" s="51"/>
+      <c r="C111" s="51"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B112" s="51"/>
+      <c r="C112" s="51"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="51"/>
+      <c r="C113" s="51"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="51"/>
+      <c r="C114" s="51"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="51"/>
+      <c r="C115" s="51"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="51"/>
+      <c r="C116" s="51"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="51"/>
+      <c r="C117" s="51"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" s="51"/>
+      <c r="C118" s="51"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="51"/>
+      <c r="C119" s="51"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" s="51"/>
+      <c r="C120" s="51"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" s="51"/>
+      <c r="C121" s="51"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" s="51"/>
+      <c r="C122" s="51"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" s="51"/>
+      <c r="C123" s="51"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" s="51"/>
+      <c r="C124" s="51"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="51"/>
+      <c r="C125" s="51"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126" s="51"/>
+      <c r="C126" s="51"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="51"/>
+      <c r="C127" s="51"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="51"/>
+      <c r="C128" s="51"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="51"/>
+      <c r="C129" s="51"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="51"/>
+      <c r="C130" s="51"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="51"/>
+      <c r="C131" s="51"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="51"/>
+      <c r="C132" s="51"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" s="51"/>
+      <c r="C133" s="51"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" s="51"/>
+      <c r="C135" s="51"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="51"/>
+      <c r="C137" s="51"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="51"/>
+      <c r="C138" s="51"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" s="51"/>
+      <c r="C139" s="51"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="51"/>
+      <c r="C141" s="51"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="51"/>
+      <c r="C142" s="51"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="51"/>
+      <c r="C143" s="51"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="51"/>
+      <c r="C144" s="51"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="51"/>
+      <c r="C145" s="51"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="51"/>
+      <c r="C147" s="51"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="51"/>
+      <c r="C148" s="51"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" s="51"/>
+      <c r="C149" s="51"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" s="51"/>
+      <c r="C150" s="51"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" s="51"/>
+      <c r="C151" s="51"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" s="51"/>
+      <c r="C152" s="51"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" s="51"/>
+      <c r="C153" s="51"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" s="51"/>
+      <c r="C154" s="51"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" s="51"/>
+      <c r="C155" s="51"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" s="51"/>
+      <c r="C156" s="51"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" s="51"/>
+      <c r="C157" s="51"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="51"/>
+      <c r="C158" s="51"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="51"/>
+      <c r="C159" s="51"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160" s="51"/>
+      <c r="C160" s="51"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="51"/>
+      <c r="C161" s="51"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="51"/>
+      <c r="C162" s="51"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163" s="51"/>
+      <c r="C163" s="51"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164" s="51"/>
+      <c r="C164" s="51"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="51"/>
+      <c r="C165" s="51"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="51"/>
+      <c r="C166" s="51"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B167" s="51"/>
+      <c r="C167" s="51"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168" s="51"/>
+      <c r="C168" s="51"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169" s="51"/>
+      <c r="C169" s="51"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170" s="51"/>
+      <c r="C170" s="51"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171" s="51"/>
+      <c r="C171" s="51"/>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172" s="51"/>
+      <c r="C172" s="51"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B173" s="51"/>
+      <c r="C173" s="51"/>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174" s="51"/>
+      <c r="C174" s="51"/>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175" s="51"/>
+      <c r="C175" s="51"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176" s="51"/>
+      <c r="C176" s="51"/>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" s="51"/>
+      <c r="C177" s="51"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178" s="51"/>
+      <c r="C178" s="51"/>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="51"/>
+      <c r="C179" s="51"/>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" s="51"/>
+      <c r="C180" s="51"/>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" s="51"/>
+      <c r="C181" s="51"/>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" s="51"/>
+      <c r="C182" s="51"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" s="51"/>
+      <c r="C183" s="51"/>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="51"/>
+      <c r="C184" s="51"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" s="51"/>
+      <c r="C185" s="51"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="51"/>
+      <c r="C186" s="51"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" s="51"/>
+      <c r="C187" s="51"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" s="51"/>
+      <c r="C188" s="51"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" s="51"/>
+      <c r="C189" s="51"/>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" s="51"/>
+      <c r="C190" s="51"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191" s="51"/>
+      <c r="C191" s="51"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" s="51"/>
+      <c r="C192" s="51"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193" s="51"/>
+      <c r="C193" s="51"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194" s="51"/>
+      <c r="C194" s="51"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="51"/>
+      <c r="C195" s="51"/>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196" s="51"/>
+      <c r="C196" s="51"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197" s="51"/>
+      <c r="C197" s="51"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" s="51"/>
+      <c r="C198" s="51"/>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199" s="51"/>
+      <c r="C199" s="51"/>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200" s="51"/>
+      <c r="C200" s="51"/>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201" s="51"/>
+      <c r="C201" s="51"/>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202" s="51"/>
+      <c r="C202" s="51"/>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203" s="51"/>
+      <c r="C203" s="51"/>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" s="51"/>
+      <c r="C204" s="51"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B205" s="51"/>
+      <c r="C205" s="51"/>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206" s="51"/>
+      <c r="C206" s="51"/>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207" s="51"/>
+      <c r="C207" s="51"/>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="51"/>
+      <c r="C208" s="51"/>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209" s="51"/>
+      <c r="C209" s="51"/>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210" s="51"/>
+      <c r="C210" s="51"/>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211" s="51"/>
+      <c r="C211" s="51"/>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B212" s="51"/>
+      <c r="C212" s="51"/>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B213" s="51"/>
+      <c r="C213" s="51"/>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214" s="51"/>
+      <c r="C214" s="51"/>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B215" s="51"/>
+      <c r="C215" s="51"/>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B216" s="51"/>
+      <c r="C216" s="51"/>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B217" s="51"/>
+      <c r="C217" s="51"/>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B218" s="51"/>
+      <c r="C218" s="51"/>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B219" s="51"/>
+      <c r="C219" s="51"/>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B220" s="51"/>
+      <c r="C220" s="51"/>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B221" s="51"/>
+      <c r="C221" s="51"/>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B222" s="51"/>
+      <c r="C222" s="51"/>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B223" s="51"/>
+      <c r="C223" s="51"/>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B224" s="51"/>
+      <c r="C224" s="51"/>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225" s="51"/>
+      <c r="C225" s="51"/>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B226" s="51"/>
+      <c r="C226" s="51"/>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227" s="51"/>
+      <c r="C227" s="51"/>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228" s="51"/>
+      <c r="C228" s="51"/>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B229" s="51"/>
+      <c r="C229" s="51"/>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B230" s="51"/>
+      <c r="C230" s="51"/>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B231" s="51"/>
+      <c r="C231" s="51"/>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B232" s="51"/>
+      <c r="C232" s="51"/>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B233" s="51"/>
+      <c r="C233" s="51"/>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B234" s="51"/>
+      <c r="C234" s="51"/>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B235" s="51"/>
+      <c r="C235" s="51"/>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B236" s="51"/>
+      <c r="C236" s="51"/>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B237" s="51"/>
+      <c r="C237" s="51"/>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B238" s="51"/>
+      <c r="C238" s="51"/>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B239" s="51"/>
+      <c r="C239" s="51"/>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B240" s="51"/>
+      <c r="C240" s="51"/>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B241" s="51"/>
+      <c r="C241" s="51"/>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B242" s="51"/>
+      <c r="C242" s="51"/>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B243" s="51"/>
+      <c r="C243" s="51"/>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B244" s="51"/>
+      <c r="C244" s="51"/>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B245" s="51"/>
+      <c r="C245" s="51"/>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B246" s="51"/>
+      <c r="C246" s="51"/>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B247" s="51"/>
+      <c r="C247" s="51"/>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B248" s="51"/>
+      <c r="C248" s="51"/>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B249" s="51"/>
+      <c r="C249" s="51"/>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B250" s="51"/>
+      <c r="C250" s="51"/>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B251" s="51"/>
+      <c r="C251" s="51"/>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B252" s="51"/>
+      <c r="C252" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C71:C75"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A55"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C31:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait"/>
